--- a/biology/Botanique/Arthur-Louis_Letacq/Arthur-Louis_Letacq.xlsx
+++ b/biology/Botanique/Arthur-Louis_Letacq/Arthur-Louis_Letacq.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arthur-Louis Letacq (né le 20 octobre 1855 à Heugon (Orne), mort le 13 octobre 1923 à Alençon) est un prêtre catholique et naturaliste français.
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Arthur-Louis Letacq fait ses études au séminaire de Sées. Il est professeur au collège de Mortagne-au-Perche puis curé de Saint-Germain-d'Aunay et de Ticheville. À partir de 1890, il est aumônier des Petites Sœurs des pauvres d'Alençon.
 Il est président de la Société linnéenne de Normandie. Il est membre de la Société botanique de France, de la Société des sciences naturelles de l'Ouest de la France, de la Société historique et archéologique de l'Orne, de la Société linnéenne de Lyon, de la Société des sciences naturelles et amis du muséum de Rouen et de la Société mycologique de France.
 En 1909, il est élu membre correspondant de la Société nationale des sciences naturelles et mathématiques de Cherbourg.
 Ses obsèques sont célébrées dans l'église Saint-Pierre d'Alençon.
-En 2015, les archives départementales de l'Orne lui consacrent une exposition[1].
+En 2015, les archives départementales de l'Orne lui consacrent une exposition.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Officier d'Académie (1911)</t>
         </is>
@@ -576,7 +592,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Auteur de près de 800 publications
 Inventaire des plantes phanérogames et cryptogames vasculaires croissant spontanément ou cultivées en grand dans le département de l'Orne, Société des Amis des sciences naturelles de Rouen, 1906-1910</t>
